--- a/out/CE/FigA_21.xlsx
+++ b/out/CE/FigA_21.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444161DC-F75F-44F7-A6F3-76CB80B53C78}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="B1">
+        <v>0.85887999999999998</v>
+      </c>
+      <c r="C1">
+        <v>0.87248000000000003</v>
+      </c>
+      <c r="D1">
+        <v>0.85004000000000002</v>
+      </c>
+      <c r="E1">
+        <v>0.84875999999999996</v>
+      </c>
+      <c r="F1">
+        <v>0.87734000000000001</v>
+      </c>
+      <c r="G1">
+        <v>0.83611999999999997</v>
+      </c>
+      <c r="H1">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="I1">
+        <v>0.85102</v>
+      </c>
+      <c r="J1">
+        <v>0.85968</v>
+      </c>
+      <c r="K1">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="L1">
+        <v>0.8468</v>
+      </c>
+      <c r="M1">
+        <v>0.85355999999999999</v>
+      </c>
+      <c r="N1">
+        <v>0.85158</v>
+      </c>
+      <c r="O1">
+        <v>0.84131999999999996</v>
+      </c>
+      <c r="P1">
+        <v>0.85433999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.87243999999999999</v>
+      </c>
+      <c r="R1">
+        <v>0.83745999999999998</v>
+      </c>
+      <c r="S1">
+        <v>0.84474000000000005</v>
+      </c>
+      <c r="T1">
+        <v>0.84338000000000002</v>
+      </c>
+      <c r="U1">
+        <v>0.85096000000000005</v>
+      </c>
+      <c r="V1">
+        <v>0.85228000000000004</v>
+      </c>
+      <c r="W1">
+        <v>0.87578</v>
+      </c>
+      <c r="X1">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="Y1">
+        <v>0.86473999999999995</v>
+      </c>
+      <c r="Z1">
+        <v>0.86575999999999997</v>
+      </c>
+      <c r="AA1">
+        <v>0.83677999999999997</v>
+      </c>
+      <c r="AB1">
+        <v>0.8609</v>
+      </c>
+      <c r="AC1">
+        <v>0.86014000000000002</v>
+      </c>
+      <c r="AD1">
+        <v>0.85072000000000003</v>
+      </c>
+      <c r="AE1">
+        <v>0.80254000000000003</v>
+      </c>
+      <c r="AF1">
+        <v>0.87734000000000001</v>
+      </c>
+      <c r="AG1">
+        <v>0.85287999999999997</v>
+      </c>
+      <c r="AH1">
+        <v>0.83321999999999996</v>
+      </c>
+      <c r="AI1">
+        <v>0.85443999999999998</v>
+      </c>
+      <c r="AJ1">
+        <v>0.83694000000000002</v>
+      </c>
+      <c r="AK1">
+        <v>0.84628000000000003</v>
+      </c>
+      <c r="AL1">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="AM1">
+        <v>0.84392</v>
+      </c>
+      <c r="AN1">
+        <v>0.85058</v>
+      </c>
+      <c r="AO1">
+        <v>0.86416000000000004</v>
+      </c>
+      <c r="AP1">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="AQ1">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="AR1">
+        <v>0.83274000000000004</v>
+      </c>
+      <c r="AS1">
+        <v>0.85153999999999996</v>
+      </c>
+      <c r="AT1">
+        <v>0.83384000000000003</v>
+      </c>
+      <c r="AU1">
+        <v>0.85133999999999999</v>
+      </c>
+      <c r="AV1">
+        <v>0.85324</v>
+      </c>
+      <c r="AW1">
+        <v>0.84138000000000002</v>
+      </c>
+      <c r="AX1">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="AY1">
+        <v>0.86051999999999995</v>
+      </c>
+      <c r="AZ1">
+        <v>0.86595999999999995</v>
+      </c>
+      <c r="BA1">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="BB1">
+        <v>0.84933999999999998</v>
+      </c>
+      <c r="BC1">
+        <v>0.85077999999999998</v>
+      </c>
+      <c r="BD1">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="BE1">
+        <v>0.85348000000000002</v>
+      </c>
+      <c r="BF1">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="BG1">
+        <v>0.83484000000000003</v>
+      </c>
+      <c r="BH1">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="BI1">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="BJ1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="BK1">
+        <v>0.8508</v>
+      </c>
+      <c r="BL1">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="BM1">
+        <v>0.83277999999999996</v>
+      </c>
+      <c r="BN1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="BO1">
+        <v>0.86412</v>
+      </c>
+      <c r="BP1">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="BQ1">
+        <v>0.8589</v>
+      </c>
+      <c r="BR1">
+        <v>0.85114000000000001</v>
+      </c>
+      <c r="BS1">
+        <v>0.85585999999999995</v>
+      </c>
+      <c r="BT1">
+        <v>0.84565999999999997</v>
+      </c>
+      <c r="BU1">
+        <v>0.82821999999999996</v>
+      </c>
+      <c r="BV1">
+        <v>0.86158000000000001</v>
+      </c>
+      <c r="BW1">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="BX1">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="BY1">
+        <v>0.86685999999999996</v>
+      </c>
+      <c r="BZ1">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="CA1">
+        <v>0.84428000000000003</v>
+      </c>
+      <c r="CB1">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="CC1">
+        <v>0.85943999999999998</v>
+      </c>
+      <c r="CD1">
+        <v>0.86258000000000001</v>
+      </c>
+      <c r="CE1">
+        <v>0.82598000000000005</v>
+      </c>
+      <c r="CF1">
+        <v>0.84726000000000001</v>
+      </c>
+      <c r="CG1">
+        <v>0.86238000000000004</v>
+      </c>
+      <c r="CH1">
+        <v>0.84131999999999996</v>
+      </c>
+      <c r="CI1">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="CJ1">
+        <v>0.84265999999999996</v>
+      </c>
+      <c r="CK1">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="CL1">
+        <v>0.82982</v>
+      </c>
+      <c r="CM1">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="CN1">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="CO1">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="CP1">
+        <v>0.82447999999999999</v>
+      </c>
+      <c r="CQ1">
+        <v>0.83794000000000002</v>
+      </c>
+      <c r="CR1">
+        <v>0.82784000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.83474000000000004</v>
+      </c>
+      <c r="CT1">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="CU1">
+        <v>0.83435999999999999</v>
+      </c>
+      <c r="CV1">
+        <v>0.85987999999999998</v>
+      </c>
+      <c r="CW1">
+        <v>0.8501464000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.84162000000000003</v>
+      </c>
+      <c r="B2">
+        <v>0.83296000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.85045999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.83562000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.87463999999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.84841999999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.83333999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.83418000000000003</v>
+      </c>
+      <c r="J2">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="K2">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.84802</v>
+      </c>
+      <c r="M2">
+        <v>0.85943999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.86528000000000005</v>
+      </c>
+      <c r="O2">
+        <v>0.87156</v>
+      </c>
+      <c r="P2">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="Q2">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.84967999999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.85846</v>
+      </c>
+      <c r="T2">
+        <v>0.84382000000000001</v>
+      </c>
+      <c r="U2">
+        <v>0.83026</v>
+      </c>
+      <c r="V2">
+        <v>0.85045999999999999</v>
+      </c>
+      <c r="W2">
+        <v>0.86958000000000002</v>
+      </c>
+      <c r="X2">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.83942000000000005</v>
+      </c>
+      <c r="Z2">
+        <v>0.85546</v>
+      </c>
+      <c r="AA2">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="AB2">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.87478</v>
+      </c>
+      <c r="AD2">
+        <v>0.83052000000000004</v>
+      </c>
+      <c r="AE2">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="AF2">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>0.87663999999999997</v>
+      </c>
+      <c r="AH2">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.83116000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>0.85816000000000003</v>
+      </c>
+      <c r="AK2">
+        <v>0.85863999999999996</v>
+      </c>
+      <c r="AL2">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="AM2">
+        <v>0.86284000000000005</v>
+      </c>
+      <c r="AN2">
+        <v>0.82657999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.85414000000000001</v>
+      </c>
+      <c r="AP2">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.84041999999999994</v>
+      </c>
+      <c r="AR2">
+        <v>0.84633999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.86104000000000003</v>
+      </c>
+      <c r="AT2">
+        <v>0.83687999999999996</v>
+      </c>
+      <c r="AU2">
+        <v>0.85316000000000003</v>
+      </c>
+      <c r="AV2">
+        <v>0.84623999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.87083999999999995</v>
+      </c>
+      <c r="AX2">
+        <v>0.85843999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="AZ2">
+        <v>0.85887999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.85048000000000001</v>
+      </c>
+      <c r="BB2">
+        <v>0.84528000000000003</v>
+      </c>
+      <c r="BC2">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="BD2">
+        <v>0.83294000000000001</v>
+      </c>
+      <c r="BE2">
+        <v>0.83457999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="BG2">
+        <v>0.84792000000000001</v>
+      </c>
+      <c r="BH2">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="BI2">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="BJ2">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="BK2">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="BL2">
+        <v>0.84855999999999998</v>
+      </c>
+      <c r="BM2">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="BN2">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="BO2">
+        <v>0.84623999999999999</v>
+      </c>
+      <c r="BP2">
+        <v>0.88512000000000002</v>
+      </c>
+      <c r="BQ2">
+        <v>0.83413999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.8337</v>
+      </c>
+      <c r="BS2">
+        <v>0.84214</v>
+      </c>
+      <c r="BT2">
+        <v>0.85802</v>
+      </c>
+      <c r="BU2">
+        <v>0.84184000000000003</v>
+      </c>
+      <c r="BV2">
+        <v>0.84467999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="BX2">
+        <v>0.84182000000000001</v>
+      </c>
+      <c r="BY2">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="BZ2">
+        <v>0.83801999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>0.82155999999999996</v>
+      </c>
+      <c r="CB2">
+        <v>0.83738000000000001</v>
+      </c>
+      <c r="CC2">
+        <v>0.85726000000000002</v>
+      </c>
+      <c r="CD2">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="CE2">
+        <v>0.85528000000000004</v>
+      </c>
+      <c r="CF2">
+        <v>0.83413999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.83448</v>
+      </c>
+      <c r="CH2">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="CI2">
+        <v>0.83682000000000001</v>
+      </c>
+      <c r="CJ2">
+        <v>0.87216000000000005</v>
+      </c>
+      <c r="CK2">
+        <v>0.8528</v>
+      </c>
+      <c r="CL2">
+        <v>0.82916000000000001</v>
+      </c>
+      <c r="CM2">
+        <v>0.86685999999999996</v>
+      </c>
+      <c r="CN2">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="CO2">
+        <v>0.85833999999999999</v>
+      </c>
+      <c r="CP2">
+        <v>0.84972000000000003</v>
+      </c>
+      <c r="CQ2">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="CR2">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="CS2">
+        <v>0.86563999999999997</v>
+      </c>
+      <c r="CT2">
+        <v>0.84797999999999996</v>
+      </c>
+      <c r="CU2">
+        <v>0.84884000000000004</v>
+      </c>
+      <c r="CV2">
+        <v>0.87134</v>
+      </c>
+      <c r="CW2">
+        <v>0.84887760000000012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="B3">
+        <v>0.83848</v>
+      </c>
+      <c r="C3">
+        <v>0.85914000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.86248000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.84692000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.86512</v>
+      </c>
+      <c r="H3">
+        <v>0.85455999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.85633999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.83806000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.83043999999999996</v>
+      </c>
+      <c r="M3">
+        <v>0.83897999999999995</v>
+      </c>
+      <c r="N3">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.82301999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="Q3">
+        <v>0.8579</v>
+      </c>
+      <c r="R3">
+        <v>0.85304000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.84843999999999997</v>
+      </c>
+      <c r="T3">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.86197999999999997</v>
+      </c>
+      <c r="W3">
+        <v>0.84386000000000005</v>
+      </c>
+      <c r="X3">
+        <v>0.83955999999999997</v>
+      </c>
+      <c r="Y3">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="Z3">
+        <v>0.84885999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.86453999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.86485999999999996</v>
+      </c>
+      <c r="AC3">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="AD3">
+        <v>0.85462000000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="AG3">
+        <v>0.84921999999999997</v>
+      </c>
+      <c r="AH3">
+        <v>0.86553999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>0.85477999999999998</v>
+      </c>
+      <c r="AJ3">
+        <v>0.84075999999999995</v>
+      </c>
+      <c r="AK3">
+        <v>0.85548000000000002</v>
+      </c>
+      <c r="AL3">
+        <v>0.84975999999999996</v>
+      </c>
+      <c r="AM3">
+        <v>0.83518000000000003</v>
+      </c>
+      <c r="AN3">
+        <v>0.81303999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="AP3">
+        <v>0.85187999999999997</v>
+      </c>
+      <c r="AQ3">
+        <v>0.84704000000000002</v>
+      </c>
+      <c r="AR3">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="AS3">
+        <v>0.85475999999999996</v>
+      </c>
+      <c r="AT3">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="AU3">
+        <v>0.84821999999999997</v>
+      </c>
+      <c r="AV3">
+        <v>0.84677999999999998</v>
+      </c>
+      <c r="AW3">
+        <v>0.83228000000000002</v>
+      </c>
+      <c r="AX3">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>0.85524</v>
+      </c>
+      <c r="AZ3">
+        <v>0.86002000000000001</v>
+      </c>
+      <c r="BA3">
+        <v>0.83601999999999999</v>
+      </c>
+      <c r="BB3">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="BC3">
+        <v>0.84223999999999999</v>
+      </c>
+      <c r="BD3">
+        <v>0.84487999999999996</v>
+      </c>
+      <c r="BE3">
+        <v>0.86362000000000005</v>
+      </c>
+      <c r="BF3">
+        <v>0.85041999999999995</v>
+      </c>
+      <c r="BG3">
+        <v>0.84404000000000001</v>
+      </c>
+      <c r="BH3">
+        <v>0.85836000000000001</v>
+      </c>
+      <c r="BI3">
+        <v>0.8599</v>
+      </c>
+      <c r="BJ3">
+        <v>0.82672000000000001</v>
+      </c>
+      <c r="BK3">
+        <v>0.82474000000000003</v>
+      </c>
+      <c r="BL3">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="BM3">
+        <v>0.85504000000000002</v>
+      </c>
+      <c r="BN3">
+        <v>0.83462000000000003</v>
+      </c>
+      <c r="BO3">
+        <v>0.85965999999999998</v>
+      </c>
+      <c r="BP3">
+        <v>0.83501999999999998</v>
+      </c>
+      <c r="BQ3">
+        <v>0.83077999999999996</v>
+      </c>
+      <c r="BR3">
+        <v>0.85355999999999999</v>
+      </c>
+      <c r="BS3">
+        <v>0.83208000000000004</v>
+      </c>
+      <c r="BT3">
+        <v>0.83648</v>
+      </c>
+      <c r="BU3">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="BV3">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="BX3">
+        <v>0.85302</v>
+      </c>
+      <c r="BY3">
+        <v>0.84236</v>
+      </c>
+      <c r="BZ3">
+        <v>0.84736</v>
+      </c>
+      <c r="CA3">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="CB3">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="CC3">
+        <v>0.80974000000000002</v>
+      </c>
+      <c r="CD3">
+        <v>0.87078</v>
+      </c>
+      <c r="CE3">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="CF3">
+        <v>0.84167999999999998</v>
+      </c>
+      <c r="CG3">
+        <v>0.83394000000000001</v>
+      </c>
+      <c r="CH3">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="CI3">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="CJ3">
+        <v>0.86255999999999999</v>
+      </c>
+      <c r="CK3">
+        <v>0.83584000000000003</v>
+      </c>
+      <c r="CL3">
+        <v>0.81598000000000004</v>
+      </c>
+      <c r="CM3">
+        <v>0.83645999999999998</v>
+      </c>
+      <c r="CN3">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="CO3">
+        <v>0.87204000000000004</v>
+      </c>
+      <c r="CP3">
+        <v>0.82672000000000001</v>
+      </c>
+      <c r="CQ3">
+        <v>0.85033999999999998</v>
+      </c>
+      <c r="CR3">
+        <v>0.85792000000000002</v>
+      </c>
+      <c r="CS3">
+        <v>0.85167999999999999</v>
+      </c>
+      <c r="CT3">
+        <v>0.82608000000000004</v>
+      </c>
+      <c r="CU3">
+        <v>0.85653999999999997</v>
+      </c>
+      <c r="CV3">
+        <v>0.82945999999999998</v>
+      </c>
+      <c r="CW3">
+        <v>0.84673599999999982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.82598000000000005</v>
+      </c>
+      <c r="B4">
+        <v>0.84265999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.84621999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.85807999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.83377999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.82484000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.85968</v>
+      </c>
+      <c r="J4">
+        <v>0.82245999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.82643999999999995</v>
+      </c>
+      <c r="L4">
+        <v>0.84065999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.84352000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.85611999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.83965999999999996</v>
+      </c>
+      <c r="P4">
+        <v>0.87114000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>0.85968</v>
+      </c>
+      <c r="R4">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S4">
+        <v>0.85067999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="U4">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="V4">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="X4">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="Y4">
+        <v>0.82486000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>0.83855999999999997</v>
+      </c>
+      <c r="AA4">
+        <v>0.83723999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.8165</v>
+      </c>
+      <c r="AC4">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>0.85138000000000003</v>
+      </c>
+      <c r="AE4">
+        <v>0.88222</v>
+      </c>
+      <c r="AF4">
+        <v>0.85416000000000003</v>
+      </c>
+      <c r="AG4">
+        <v>0.84231999999999996</v>
+      </c>
+      <c r="AH4">
+        <v>0.82003999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>0.84843999999999997</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8488</v>
+      </c>
+      <c r="AK4">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="AL4">
+        <v>0.86584000000000005</v>
+      </c>
+      <c r="AM4">
+        <v>0.85958000000000001</v>
+      </c>
+      <c r="AN4">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AO4">
+        <v>0.83684000000000003</v>
+      </c>
+      <c r="AP4">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="AQ4">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="AR4">
+        <v>0.87087999999999999</v>
+      </c>
+      <c r="AS4">
+        <v>0.86326000000000003</v>
+      </c>
+      <c r="AT4">
+        <v>0.85482000000000002</v>
+      </c>
+      <c r="AU4">
+        <v>0.85887999999999998</v>
+      </c>
+      <c r="AV4">
+        <v>0.85914000000000001</v>
+      </c>
+      <c r="AW4">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="AX4">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AY4">
+        <v>0.83743999999999996</v>
+      </c>
+      <c r="AZ4">
+        <v>0.84918000000000005</v>
+      </c>
+      <c r="BA4">
+        <v>0.8427</v>
+      </c>
+      <c r="BB4">
+        <v>0.84594000000000003</v>
+      </c>
+      <c r="BC4">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="BD4">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="BE4">
+        <v>0.85553999999999997</v>
+      </c>
+      <c r="BF4">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.85968</v>
+      </c>
+      <c r="BH4">
+        <v>0.86238000000000004</v>
+      </c>
+      <c r="BI4">
+        <v>0.85292000000000001</v>
+      </c>
+      <c r="BJ4">
+        <v>0.85911999999999999</v>
+      </c>
+      <c r="BK4">
+        <v>0.82557999999999998</v>
+      </c>
+      <c r="BL4">
+        <v>0.83942000000000005</v>
+      </c>
+      <c r="BM4">
+        <v>0.85053999999999996</v>
+      </c>
+      <c r="BN4">
+        <v>0.83616000000000001</v>
+      </c>
+      <c r="BO4">
+        <v>0.85655999999999999</v>
+      </c>
+      <c r="BP4">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="BQ4">
+        <v>0.82364000000000004</v>
+      </c>
+      <c r="BR4">
+        <v>0.85516000000000003</v>
+      </c>
+      <c r="BS4">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="BT4">
+        <v>0.84287999999999996</v>
+      </c>
+      <c r="BU4">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="BV4">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="BW4">
+        <v>0.87678</v>
+      </c>
+      <c r="BX4">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="BY4">
+        <v>0.86731999999999998</v>
+      </c>
+      <c r="BZ4">
+        <v>0.87192000000000003</v>
+      </c>
+      <c r="CA4">
+        <v>0.85058</v>
+      </c>
+      <c r="CB4">
+        <v>0.82221999999999995</v>
+      </c>
+      <c r="CC4">
+        <v>0.85706000000000004</v>
+      </c>
+      <c r="CD4">
+        <v>0.82694000000000001</v>
+      </c>
+      <c r="CE4">
+        <v>0.85358000000000001</v>
+      </c>
+      <c r="CF4">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="CG4">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="CH4">
+        <v>0.84231999999999996</v>
+      </c>
+      <c r="CI4">
+        <v>0.82582</v>
+      </c>
+      <c r="CJ4">
+        <v>0.82428000000000001</v>
+      </c>
+      <c r="CK4">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="CL4">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="CM4">
+        <v>0.85063999999999995</v>
+      </c>
+      <c r="CN4">
+        <v>0.86177999999999999</v>
+      </c>
+      <c r="CO4">
+        <v>0.86312</v>
+      </c>
+      <c r="CP4">
+        <v>0.84548000000000001</v>
+      </c>
+      <c r="CQ4">
+        <v>0.84948000000000001</v>
+      </c>
+      <c r="CR4">
+        <v>0.86036000000000001</v>
+      </c>
+      <c r="CS4">
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="CT4">
+        <v>0.85085999999999995</v>
+      </c>
+      <c r="CU4">
+        <v>0.86731999999999998</v>
+      </c>
+      <c r="CV4">
+        <v>0.84845999999999999</v>
+      </c>
+      <c r="CW4">
+        <v>0.84851119999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.84421999999999997</v>
+      </c>
+      <c r="B5">
+        <v>0.85948000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.84902</v>
+      </c>
+      <c r="F5">
+        <v>0.83645999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.86106000000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="I5">
+        <v>0.84563999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.83338000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.85216000000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.83801999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.84153999999999995</v>
+      </c>
+      <c r="N5">
+        <v>0.87578</v>
+      </c>
+      <c r="O5">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="P5">
+        <v>0.83008000000000004</v>
+      </c>
+      <c r="Q5">
+        <v>0.86563999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.85206000000000004</v>
+      </c>
+      <c r="S5">
+        <v>0.84538000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.81444000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.83206000000000002</v>
+      </c>
+      <c r="V5">
+        <v>0.85531999999999997</v>
+      </c>
+      <c r="W5">
+        <v>0.86017999999999994</v>
+      </c>
+      <c r="X5">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>0.83842000000000005</v>
+      </c>
+      <c r="Z5">
+        <v>0.86077999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.86184000000000005</v>
+      </c>
+      <c r="AB5">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="AC5">
+        <v>0.85782000000000003</v>
+      </c>
+      <c r="AD5">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AF5">
+        <v>0.83635999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>0.85036</v>
+      </c>
+      <c r="AH5">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="AI5">
+        <v>0.84526000000000001</v>
+      </c>
+      <c r="AJ5">
+        <v>0.84106000000000003</v>
+      </c>
+      <c r="AK5">
+        <v>0.84714</v>
+      </c>
+      <c r="AL5">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="AM5">
+        <v>0.85984000000000005</v>
+      </c>
+      <c r="AN5">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="AO5">
+        <v>0.84184000000000003</v>
+      </c>
+      <c r="AP5">
+        <v>0.83375999999999995</v>
+      </c>
+      <c r="AQ5">
+        <v>0.81808000000000003</v>
+      </c>
+      <c r="AR5">
+        <v>0.83474000000000004</v>
+      </c>
+      <c r="AS5">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="AT5">
+        <v>0.85382000000000002</v>
+      </c>
+      <c r="AU5">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="AV5">
+        <v>0.84416000000000002</v>
+      </c>
+      <c r="AW5">
+        <v>0.83674000000000004</v>
+      </c>
+      <c r="AX5">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="AY5">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="AZ5">
+        <v>0.84587999999999997</v>
+      </c>
+      <c r="BA5">
+        <v>0.84394000000000002</v>
+      </c>
+      <c r="BB5">
+        <v>0.82155999999999996</v>
+      </c>
+      <c r="BC5">
+        <v>0.81664000000000003</v>
+      </c>
+      <c r="BD5">
+        <v>0.85053999999999996</v>
+      </c>
+      <c r="BE5">
+        <v>0.85596000000000005</v>
+      </c>
+      <c r="BF5">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="BG5">
+        <v>0.85396000000000005</v>
+      </c>
+      <c r="BH5">
+        <v>0.85446</v>
+      </c>
+      <c r="BI5">
+        <v>0.84053999999999995</v>
+      </c>
+      <c r="BJ5">
+        <v>0.83875999999999995</v>
+      </c>
+      <c r="BK5">
+        <v>0.84196000000000004</v>
+      </c>
+      <c r="BL5">
+        <v>0.85651999999999995</v>
+      </c>
+      <c r="BM5">
+        <v>0.84943999999999997</v>
+      </c>
+      <c r="BN5">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="BO5">
+        <v>0.83757999999999999</v>
+      </c>
+      <c r="BP5">
+        <v>0.83587999999999996</v>
+      </c>
+      <c r="BQ5">
+        <v>0.87197999999999998</v>
+      </c>
+      <c r="BR5">
+        <v>0.8659</v>
+      </c>
+      <c r="BS5">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="BT5">
+        <v>0.86924000000000001</v>
+      </c>
+      <c r="BU5">
+        <v>0.83494000000000002</v>
+      </c>
+      <c r="BV5">
+        <v>0.84523999999999999</v>
+      </c>
+      <c r="BW5">
+        <v>0.84916000000000003</v>
+      </c>
+      <c r="BX5">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="BY5">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="BZ5">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="CA5">
+        <v>0.85411999999999999</v>
+      </c>
+      <c r="CB5">
+        <v>0.85121999999999998</v>
+      </c>
+      <c r="CC5">
+        <v>0.86168</v>
+      </c>
+      <c r="CD5">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="CE5">
+        <v>0.83406000000000002</v>
+      </c>
+      <c r="CF5">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="CG5">
+        <v>0.83955999999999997</v>
+      </c>
+      <c r="CH5">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="CI5">
+        <v>0.86082000000000003</v>
+      </c>
+      <c r="CJ5">
+        <v>0.85743999999999998</v>
+      </c>
+      <c r="CK5">
+        <v>0.83864000000000005</v>
+      </c>
+      <c r="CL5">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="CM5">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="CN5">
+        <v>0.84538000000000002</v>
+      </c>
+      <c r="CO5">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="CP5">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="CQ5">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="CR5">
+        <v>0.83638000000000001</v>
+      </c>
+      <c r="CS5">
+        <v>0.83743999999999996</v>
+      </c>
+      <c r="CT5">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="CU5">
+        <v>0.80833999999999995</v>
+      </c>
+      <c r="CV5">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>0.84610380000000018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="B6">
+        <v>0.85053999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.83616000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.87258000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.83738000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.87565999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.82942000000000005</v>
+      </c>
+      <c r="K6">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.83911999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.83662000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.83677999999999997</v>
+      </c>
+      <c r="P6">
+        <v>0.85204000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>0.84467999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="S6">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="U6">
+        <v>0.84931999999999996</v>
+      </c>
+      <c r="V6">
+        <v>0.83482000000000001</v>
+      </c>
+      <c r="W6">
+        <v>0.85063999999999995</v>
+      </c>
+      <c r="X6">
+        <v>0.86528000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>0.83577999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>0.85995999999999995</v>
+      </c>
+      <c r="AA6">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="AB6">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="AC6">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="AE6">
+        <v>0.85504000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>0.86131999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="AH6">
+        <v>0.84974000000000005</v>
+      </c>
+      <c r="AI6">
+        <v>0.8125</v>
+      </c>
+      <c r="AJ6">
+        <v>0.81398000000000004</v>
+      </c>
+      <c r="AK6">
+        <v>0.86124000000000001</v>
+      </c>
+      <c r="AL6">
+        <v>0.85768</v>
+      </c>
+      <c r="AM6">
+        <v>0.84074000000000004</v>
+      </c>
+      <c r="AN6">
+        <v>0.85224</v>
+      </c>
+      <c r="AO6">
+        <v>0.84621999999999997</v>
+      </c>
+      <c r="AP6">
+        <v>0.83875999999999995</v>
+      </c>
+      <c r="AQ6">
+        <v>0.85121999999999998</v>
+      </c>
+      <c r="AR6">
+        <v>0.83814</v>
+      </c>
+      <c r="AS6">
+        <v>0.86865999999999999</v>
+      </c>
+      <c r="AT6">
+        <v>0.84082000000000001</v>
+      </c>
+      <c r="AU6">
+        <v>0.82233999999999996</v>
+      </c>
+      <c r="AV6">
+        <v>0.81923999999999997</v>
+      </c>
+      <c r="AW6">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="AX6">
+        <v>0.84816000000000003</v>
+      </c>
+      <c r="AY6">
+        <v>0.84967999999999999</v>
+      </c>
+      <c r="AZ6">
+        <v>0.87002000000000002</v>
+      </c>
+      <c r="BA6">
+        <v>0.85131999999999997</v>
+      </c>
+      <c r="BB6">
+        <v>0.82801999999999998</v>
+      </c>
+      <c r="BC6">
+        <v>0.84416000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="BE6">
+        <v>0.82682</v>
+      </c>
+      <c r="BF6">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="BG6">
+        <v>0.83738000000000001</v>
+      </c>
+      <c r="BH6">
+        <v>0.85477999999999998</v>
+      </c>
+      <c r="BI6">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="BJ6">
+        <v>0.84584000000000004</v>
+      </c>
+      <c r="BK6">
+        <v>0.8669</v>
+      </c>
+      <c r="BL6">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="BM6">
+        <v>0.84733999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.86024</v>
+      </c>
+      <c r="BO6">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="BP6">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="BQ6">
+        <v>0.86084000000000005</v>
+      </c>
+      <c r="BR6">
+        <v>0.85438000000000003</v>
+      </c>
+      <c r="BS6">
+        <v>0.82696000000000003</v>
+      </c>
+      <c r="BT6">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="BU6">
+        <v>0.84048</v>
+      </c>
+      <c r="BV6">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.87283999999999995</v>
+      </c>
+      <c r="BX6">
+        <v>0.85292000000000001</v>
+      </c>
+      <c r="BY6">
+        <v>0.86372000000000004</v>
+      </c>
+      <c r="BZ6">
+        <v>0.85906000000000005</v>
+      </c>
+      <c r="CA6">
+        <v>0.84086000000000005</v>
+      </c>
+      <c r="CB6">
+        <v>0.87248000000000003</v>
+      </c>
+      <c r="CC6">
+        <v>0.87085999999999997</v>
+      </c>
+      <c r="CD6">
+        <v>0.84538000000000002</v>
+      </c>
+      <c r="CE6">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="CF6">
+        <v>0.81996000000000002</v>
+      </c>
+      <c r="CG6">
+        <v>0.85163999999999995</v>
+      </c>
+      <c r="CH6">
+        <v>0.84626000000000001</v>
+      </c>
+      <c r="CI6">
+        <v>0.86783999999999994</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="CK6">
+        <v>0.83184000000000002</v>
+      </c>
+      <c r="CL6">
+        <v>0.83386000000000005</v>
+      </c>
+      <c r="CM6">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="CN6">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="CO6">
+        <v>0.86628000000000005</v>
+      </c>
+      <c r="CP6">
+        <v>0.85204000000000002</v>
+      </c>
+      <c r="CQ6">
+        <v>0.84353999999999996</v>
+      </c>
+      <c r="CR6">
+        <v>0.84943999999999997</v>
+      </c>
+      <c r="CS6">
+        <v>0.84467999999999999</v>
+      </c>
+      <c r="CT6">
+        <v>0.84043999999999996</v>
+      </c>
+      <c r="CU6">
+        <v>0.84923999999999999</v>
+      </c>
+      <c r="CV6">
+        <v>0.84696000000000005</v>
+      </c>
+      <c r="CW6">
+        <v>0.84799400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.82652000000000003</v>
+      </c>
+      <c r="B7">
+        <v>0.87817999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.86421999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.86817999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.86756</v>
+      </c>
+      <c r="F7">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.84641999999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.85577999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.85643999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.84263999999999994</v>
+      </c>
+      <c r="K7">
+        <v>0.85043999999999997</v>
+      </c>
+      <c r="L7">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.85655999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.85626000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.85687999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.87087999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.85416000000000003</v>
+      </c>
+      <c r="R7">
+        <v>0.86238000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="T7">
+        <v>0.84697999999999996</v>
+      </c>
+      <c r="U7">
+        <v>0.84045999999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.84426000000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.84436</v>
+      </c>
+      <c r="Y7">
+        <v>0.83342000000000005</v>
+      </c>
+      <c r="Z7">
+        <v>0.83994000000000002</v>
+      </c>
+      <c r="AA7">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="AB7">
+        <v>0.84887999999999997</v>
+      </c>
+      <c r="AC7">
+        <v>0.83945999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>0.86731999999999998</v>
+      </c>
+      <c r="AE7">
+        <v>0.86851999999999996</v>
+      </c>
+      <c r="AF7">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="AG7">
+        <v>0.86875999999999998</v>
+      </c>
+      <c r="AH7">
+        <v>0.85784000000000005</v>
+      </c>
+      <c r="AI7">
+        <v>0.85494000000000003</v>
+      </c>
+      <c r="AJ7">
+        <v>0.86517999999999995</v>
+      </c>
+      <c r="AK7">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="AL7">
+        <v>0.84016000000000002</v>
+      </c>
+      <c r="AM7">
+        <v>0.86195999999999995</v>
+      </c>
+      <c r="AN7">
+        <v>0.83952000000000004</v>
+      </c>
+      <c r="AO7">
+        <v>0.84531999999999996</v>
+      </c>
+      <c r="AP7">
+        <v>0.84241999999999995</v>
+      </c>
+      <c r="AQ7">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.85333999999999999</v>
+      </c>
+      <c r="AS7">
+        <v>0.88127999999999995</v>
+      </c>
+      <c r="AT7">
+        <v>0.81377999999999995</v>
+      </c>
+      <c r="AU7">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="AV7">
+        <v>0.86831999999999998</v>
+      </c>
+      <c r="AW7">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="AX7">
+        <v>0.83164000000000005</v>
+      </c>
+      <c r="AY7">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="AZ7">
+        <v>0.86814000000000002</v>
+      </c>
+      <c r="BA7">
+        <v>0.85946</v>
+      </c>
+      <c r="BB7">
+        <v>0.83613999999999999</v>
+      </c>
+      <c r="BC7">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="BD7">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="BE7">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>0.85882000000000003</v>
+      </c>
+      <c r="BG7">
+        <v>0.82911999999999997</v>
+      </c>
+      <c r="BH7">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="BI7">
         <v>0.85318000000000005</v>
       </c>
-      <c r="B1">
-        <v>0.84567999999999999</v>
-      </c>
-      <c r="C1">
-        <v>0.84943000000000002</v>
+      <c r="BJ7">
+        <v>0.85943999999999998</v>
+      </c>
+      <c r="BK7">
+        <v>0.88312000000000002</v>
+      </c>
+      <c r="BL7">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="BM7">
+        <v>0.85685999999999996</v>
+      </c>
+      <c r="BN7">
+        <v>0.83306000000000002</v>
+      </c>
+      <c r="BO7">
+        <v>0.85238000000000003</v>
+      </c>
+      <c r="BP7">
+        <v>0.81366000000000005</v>
+      </c>
+      <c r="BQ7">
+        <v>0.85465999999999998</v>
+      </c>
+      <c r="BR7">
+        <v>0.88088</v>
+      </c>
+      <c r="BS7">
+        <v>0.86484000000000005</v>
+      </c>
+      <c r="BT7">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="BU7">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="BV7">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="BW7">
+        <v>0.83838000000000001</v>
+      </c>
+      <c r="BX7">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="BY7">
+        <v>0.82282</v>
+      </c>
+      <c r="BZ7">
+        <v>0.87748000000000004</v>
+      </c>
+      <c r="CA7">
+        <v>0.81998000000000004</v>
+      </c>
+      <c r="CB7">
+        <v>0.86212</v>
+      </c>
+      <c r="CC7">
+        <v>0.83572000000000002</v>
+      </c>
+      <c r="CD7">
+        <v>0.85377999999999998</v>
+      </c>
+      <c r="CE7">
+        <v>0.82362000000000002</v>
+      </c>
+      <c r="CF7">
+        <v>0.86075999999999997</v>
+      </c>
+      <c r="CG7">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="CH7">
+        <v>0.84411999999999998</v>
+      </c>
+      <c r="CI7">
+        <v>0.8579</v>
+      </c>
+      <c r="CJ7">
+        <v>0.85462000000000005</v>
+      </c>
+      <c r="CK7">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="CL7">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="CM7">
+        <v>0.83511999999999997</v>
+      </c>
+      <c r="CN7">
+        <v>0.85551999999999995</v>
+      </c>
+      <c r="CO7">
+        <v>0.84767999999999999</v>
+      </c>
+      <c r="CP7">
+        <v>0.85211999999999999</v>
+      </c>
+      <c r="CQ7">
+        <v>0.84358</v>
+      </c>
+      <c r="CR7">
+        <v>0.84696000000000005</v>
+      </c>
+      <c r="CS7">
+        <v>0.84826000000000001</v>
+      </c>
+      <c r="CT7">
+        <v>0.81372</v>
+      </c>
+      <c r="CU7">
+        <v>0.84421999999999997</v>
+      </c>
+      <c r="CV7">
+        <v>0.84936</v>
+      </c>
+      <c r="CW7">
+        <v>0.85109059999999981</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.83938000000000001</v>
-      </c>
-      <c r="B2">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="C2">
-        <v>0.84068999999999994</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.85236000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.83382000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.85763999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.83675999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.85711999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.85724</v>
+      </c>
+      <c r="J8">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="K8">
+        <v>0.85955999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.84531999999999996</v>
+      </c>
+      <c r="N8">
+        <v>0.83838000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.85575999999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.82977999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>0.85372000000000003</v>
+      </c>
+      <c r="R8">
+        <v>0.82782</v>
+      </c>
+      <c r="S8">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="T8">
+        <v>0.82286000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="V8">
+        <v>0.88236000000000003</v>
+      </c>
+      <c r="W8">
+        <v>0.87538000000000005</v>
+      </c>
+      <c r="X8">
+        <v>0.82643999999999995</v>
+      </c>
+      <c r="Y8">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="Z8">
+        <v>0.84804000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.83187999999999995</v>
+      </c>
+      <c r="AB8">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>0.82687999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.85624</v>
+      </c>
+      <c r="AE8">
+        <v>0.86217999999999995</v>
+      </c>
+      <c r="AF8">
+        <v>0.83333999999999997</v>
+      </c>
+      <c r="AG8">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.85704000000000002</v>
+      </c>
+      <c r="AI8">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>0.82996000000000003</v>
+      </c>
+      <c r="AK8">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="AL8">
+        <v>0.83775999999999995</v>
+      </c>
+      <c r="AM8">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>0.82406000000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.84208000000000005</v>
+      </c>
+      <c r="AP8">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="AQ8">
+        <v>0.84592000000000001</v>
+      </c>
+      <c r="AR8">
+        <v>0.83101999999999998</v>
+      </c>
+      <c r="AS8">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="AT8">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AU8">
+        <v>0.86082000000000003</v>
+      </c>
+      <c r="AV8">
+        <v>0.84894000000000003</v>
+      </c>
+      <c r="AW8">
+        <v>0.85021999999999998</v>
+      </c>
+      <c r="AX8">
+        <v>0.85346</v>
+      </c>
+      <c r="AY8">
+        <v>0.83253999999999995</v>
+      </c>
+      <c r="AZ8">
+        <v>0.84558</v>
+      </c>
+      <c r="BA8">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="BB8">
+        <v>0.84936</v>
+      </c>
+      <c r="BC8">
+        <v>0.82354000000000005</v>
+      </c>
+      <c r="BD8">
+        <v>0.84684000000000004</v>
+      </c>
+      <c r="BE8">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="BF8">
+        <v>0.8488</v>
+      </c>
+      <c r="BG8">
+        <v>0.85868</v>
+      </c>
+      <c r="BH8">
+        <v>0.86428000000000005</v>
+      </c>
+      <c r="BI8">
+        <v>0.8387</v>
+      </c>
+      <c r="BJ8">
+        <v>0.84604000000000001</v>
+      </c>
+      <c r="BK8">
+        <v>0.83792</v>
+      </c>
+      <c r="BL8">
+        <v>0.85262000000000004</v>
+      </c>
+      <c r="BM8">
+        <v>0.86495999999999995</v>
+      </c>
+      <c r="BN8">
+        <v>0.83931999999999995</v>
+      </c>
+      <c r="BO8">
+        <v>0.83657999999999999</v>
+      </c>
+      <c r="BP8">
+        <v>0.85063999999999995</v>
+      </c>
+      <c r="BQ8">
+        <v>0.88875999999999999</v>
+      </c>
+      <c r="BR8">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="BS8">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="BT8">
+        <v>0.86212</v>
+      </c>
+      <c r="BU8">
+        <v>0.84458</v>
+      </c>
+      <c r="BV8">
+        <v>0.83123999999999998</v>
+      </c>
+      <c r="BW8">
+        <v>0.86477999999999999</v>
+      </c>
+      <c r="BX8">
+        <v>0.83906000000000003</v>
+      </c>
+      <c r="BY8">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="BZ8">
+        <v>0.87134</v>
+      </c>
+      <c r="CA8">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="CB8">
+        <v>0.83462000000000003</v>
+      </c>
+      <c r="CC8">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="CD8">
+        <v>0.83465999999999996</v>
+      </c>
+      <c r="CE8">
+        <v>0.84736</v>
+      </c>
+      <c r="CF8">
+        <v>0.84341999999999995</v>
+      </c>
+      <c r="CG8">
+        <v>0.83516000000000001</v>
+      </c>
+      <c r="CH8">
+        <v>0.84611999999999998</v>
+      </c>
+      <c r="CI8">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="CJ8">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="CK8">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="CL8">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="CM8">
+        <v>0.83406000000000002</v>
+      </c>
+      <c r="CN8">
+        <v>0.83842000000000005</v>
+      </c>
+      <c r="CO8">
+        <v>0.85136000000000001</v>
+      </c>
+      <c r="CP8">
+        <v>0.84438000000000002</v>
+      </c>
+      <c r="CQ8">
+        <v>0.85153999999999996</v>
+      </c>
+      <c r="CR8">
+        <v>0.85502</v>
+      </c>
+      <c r="CS8">
+        <v>0.84431999999999996</v>
+      </c>
+      <c r="CT8">
+        <v>0.85668</v>
+      </c>
+      <c r="CU8">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="CV8">
+        <v>0.85165999999999997</v>
+      </c>
+      <c r="CW8">
+        <v>0.8475701999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.86182000000000003</v>
-      </c>
-      <c r="B3">
-        <v>0.87112000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.86647000000000007</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.86872000000000005</v>
+      </c>
+      <c r="B9">
+        <v>0.85258</v>
+      </c>
+      <c r="C9">
+        <v>0.84245999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.84433999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.85836000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.83318000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.83828000000000003</v>
+      </c>
+      <c r="K9">
+        <v>0.83908000000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.85348000000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.84187999999999996</v>
+      </c>
+      <c r="O9">
+        <v>0.85253999999999996</v>
+      </c>
+      <c r="P9">
+        <v>0.82813999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.83223999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.83933999999999997</v>
+      </c>
+      <c r="S9">
+        <v>0.82898000000000005</v>
+      </c>
+      <c r="T9">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="U9">
+        <v>0.84984000000000004</v>
+      </c>
+      <c r="V9">
+        <v>0.88093999999999995</v>
+      </c>
+      <c r="W9">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="X9">
+        <v>0.84386000000000005</v>
+      </c>
+      <c r="Y9">
+        <v>0.86783999999999994</v>
+      </c>
+      <c r="Z9">
+        <v>0.8508</v>
+      </c>
+      <c r="AA9">
+        <v>0.86992000000000003</v>
+      </c>
+      <c r="AB9">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="AC9">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="AD9">
+        <v>0.86804000000000003</v>
+      </c>
+      <c r="AE9">
+        <v>0.84887999999999997</v>
+      </c>
+      <c r="AF9">
+        <v>0.85358000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="AH9">
+        <v>0.84323999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.86614000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>0.86424000000000001</v>
+      </c>
+      <c r="AK9">
+        <v>0.82174000000000003</v>
+      </c>
+      <c r="AL9">
+        <v>0.83974000000000004</v>
+      </c>
+      <c r="AM9">
+        <v>0.84267999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0.8538</v>
+      </c>
+      <c r="AO9">
+        <v>0.85687999999999998</v>
+      </c>
+      <c r="AP9">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>0.87324000000000002</v>
+      </c>
+      <c r="AR9">
+        <v>0.87343999999999999</v>
+      </c>
+      <c r="AS9">
+        <v>0.87172000000000005</v>
+      </c>
+      <c r="AT9">
+        <v>0.85506000000000004</v>
+      </c>
+      <c r="AU9">
+        <v>0.85038000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>0.84696000000000005</v>
+      </c>
+      <c r="AW9">
+        <v>0.85948000000000002</v>
+      </c>
+      <c r="AX9">
+        <v>0.84436</v>
+      </c>
+      <c r="AY9">
+        <v>0.8407</v>
+      </c>
+      <c r="AZ9">
+        <v>0.84614</v>
+      </c>
+      <c r="BA9">
+        <v>0.83228000000000002</v>
+      </c>
+      <c r="BB9">
+        <v>0.85485999999999995</v>
+      </c>
+      <c r="BC9">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="BD9">
+        <v>0.87814000000000003</v>
+      </c>
+      <c r="BE9">
+        <v>0.84921999999999997</v>
+      </c>
+      <c r="BF9">
+        <v>0.86926000000000003</v>
+      </c>
+      <c r="BG9">
+        <v>0.84311999999999998</v>
+      </c>
+      <c r="BH9">
+        <v>0.85397999999999996</v>
+      </c>
+      <c r="BI9">
+        <v>0.84153999999999995</v>
+      </c>
+      <c r="BJ9">
+        <v>0.83321999999999996</v>
+      </c>
+      <c r="BK9">
+        <v>0.87419999999999998</v>
+      </c>
+      <c r="BL9">
+        <v>0.85795999999999994</v>
+      </c>
+      <c r="BM9">
+        <v>0.83796000000000004</v>
+      </c>
+      <c r="BN9">
+        <v>0.85694000000000004</v>
+      </c>
+      <c r="BO9">
+        <v>0.84977999999999998</v>
+      </c>
+      <c r="BP9">
+        <v>0.83638000000000001</v>
+      </c>
+      <c r="BQ9">
+        <v>0.86506000000000005</v>
+      </c>
+      <c r="BR9">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="BS9">
+        <v>0.85246</v>
+      </c>
+      <c r="BT9">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="BU9">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="BV9">
+        <v>0.86358000000000001</v>
+      </c>
+      <c r="BW9">
+        <v>0.8427</v>
+      </c>
+      <c r="BX9">
+        <v>0.84774000000000005</v>
+      </c>
+      <c r="BY9">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="BZ9">
+        <v>0.85418000000000005</v>
+      </c>
+      <c r="CA9">
+        <v>0.84365999999999997</v>
+      </c>
+      <c r="CB9">
+        <v>0.84374000000000005</v>
+      </c>
+      <c r="CC9">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="CD9">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="CE9">
+        <v>0.86246</v>
+      </c>
+      <c r="CF9">
+        <v>0.82362000000000002</v>
+      </c>
+      <c r="CG9">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="CH9">
+        <v>0.84231999999999996</v>
+      </c>
+      <c r="CI9">
+        <v>0.85994000000000004</v>
+      </c>
+      <c r="CJ9">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="CK9">
+        <v>0.85533999999999999</v>
+      </c>
+      <c r="CL9">
+        <v>0.84138000000000002</v>
+      </c>
+      <c r="CM9">
+        <v>0.84504000000000001</v>
+      </c>
+      <c r="CN9">
+        <v>0.84955999999999998</v>
+      </c>
+      <c r="CO9">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="CP9">
+        <v>0.83835999999999999</v>
+      </c>
+      <c r="CQ9">
+        <v>0.83886000000000005</v>
+      </c>
+      <c r="CR9">
+        <v>0.85582000000000003</v>
+      </c>
+      <c r="CS9">
+        <v>0.82865999999999995</v>
+      </c>
+      <c r="CT9">
+        <v>0.85548000000000002</v>
+      </c>
+      <c r="CU9">
+        <v>0.81964000000000004</v>
+      </c>
+      <c r="CV9">
+        <v>0.83086000000000004</v>
+      </c>
+      <c r="CW9">
+        <v>0.8498205999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.83350000000000002</v>
-      </c>
-      <c r="B4">
-        <v>0.84892000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.84121000000000001</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.86114000000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.82965999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.84148000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.83223999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.87224000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.87334000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.87005999999999994</v>
+      </c>
+      <c r="J10">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.83704000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.84818000000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.83786000000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.84404000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.87236000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.84655999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="S10">
+        <v>0.85055999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.8377</v>
+      </c>
+      <c r="U10">
+        <v>0.85773999999999995</v>
+      </c>
+      <c r="V10">
+        <v>0.82896000000000003</v>
+      </c>
+      <c r="W10">
+        <v>0.82647999999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.85472000000000004</v>
+      </c>
+      <c r="Y10">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.86197999999999997</v>
+      </c>
+      <c r="AA10">
+        <v>0.83777999999999997</v>
+      </c>
+      <c r="AB10">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="AC10">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0.83982000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>0.85668</v>
+      </c>
+      <c r="AF10">
+        <v>0.84172000000000002</v>
+      </c>
+      <c r="AG10">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="AH10">
+        <v>0.83594000000000002</v>
+      </c>
+      <c r="AI10">
+        <v>0.86661999999999995</v>
+      </c>
+      <c r="AJ10">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>0.83196000000000003</v>
+      </c>
+      <c r="AL10">
+        <v>0.86262000000000005</v>
+      </c>
+      <c r="AM10">
+        <v>0.81347999999999998</v>
+      </c>
+      <c r="AN10">
+        <v>0.83848</v>
+      </c>
+      <c r="AO10">
+        <v>0.85551999999999995</v>
+      </c>
+      <c r="AP10">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="AQ10">
+        <v>0.85965999999999998</v>
+      </c>
+      <c r="AR10">
+        <v>0.83462000000000003</v>
+      </c>
+      <c r="AS10">
+        <v>0.86041999999999996</v>
+      </c>
+      <c r="AT10">
+        <v>0.82088000000000005</v>
+      </c>
+      <c r="AU10">
+        <v>0.86948000000000003</v>
+      </c>
+      <c r="AV10">
+        <v>0.82647999999999999</v>
+      </c>
+      <c r="AW10">
+        <v>0.84792000000000001</v>
+      </c>
+      <c r="AX10">
+        <v>0.85872000000000004</v>
+      </c>
+      <c r="AY10">
+        <v>0.83087999999999995</v>
+      </c>
+      <c r="AZ10">
+        <v>0.86961999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.85738000000000003</v>
+      </c>
+      <c r="BB10">
+        <v>0.86317999999999995</v>
+      </c>
+      <c r="BC10">
+        <v>0.87746000000000002</v>
+      </c>
+      <c r="BD10">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="BE10">
+        <v>0.85795999999999994</v>
+      </c>
+      <c r="BF10">
+        <v>0.86273999999999995</v>
+      </c>
+      <c r="BG10">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="BH10">
+        <v>0.86585999999999996</v>
+      </c>
+      <c r="BI10">
+        <v>0.84082000000000001</v>
+      </c>
+      <c r="BJ10">
+        <v>0.85494000000000003</v>
+      </c>
+      <c r="BK10">
+        <v>0.84108000000000005</v>
+      </c>
+      <c r="BL10">
+        <v>0.84453999999999996</v>
+      </c>
+      <c r="BM10">
+        <v>0.84814000000000001</v>
+      </c>
+      <c r="BN10">
+        <v>0.89334000000000002</v>
+      </c>
+      <c r="BO10">
+        <v>0.86194000000000004</v>
+      </c>
+      <c r="BP10">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="BQ10">
+        <v>0.85114000000000001</v>
+      </c>
+      <c r="BR10">
+        <v>0.85141999999999995</v>
+      </c>
+      <c r="BS10">
+        <v>0.84372000000000003</v>
+      </c>
+      <c r="BT10">
+        <v>0.84775999999999996</v>
+      </c>
+      <c r="BU10">
+        <v>0.85385999999999995</v>
+      </c>
+      <c r="BV10">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="BW10">
+        <v>0.83255999999999997</v>
+      </c>
+      <c r="BX10">
+        <v>0.86051999999999995</v>
+      </c>
+      <c r="BY10">
+        <v>0.8528</v>
+      </c>
+      <c r="BZ10">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="CA10">
+        <v>0.84497999999999995</v>
+      </c>
+      <c r="CB10">
+        <v>0.86306000000000005</v>
+      </c>
+      <c r="CC10">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="CD10">
+        <v>0.86394000000000004</v>
+      </c>
+      <c r="CE10">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="CF10">
+        <v>0.83308000000000004</v>
+      </c>
+      <c r="CG10">
+        <v>0.84706000000000004</v>
+      </c>
+      <c r="CH10">
+        <v>0.88973999999999998</v>
+      </c>
+      <c r="CI10">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="CJ10">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="CK10">
+        <v>0.84977999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="CM10">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="CN10">
+        <v>0.83782000000000001</v>
+      </c>
+      <c r="CO10">
+        <v>0.87683999999999995</v>
+      </c>
+      <c r="CP10">
+        <v>0.86684000000000005</v>
+      </c>
+      <c r="CQ10">
+        <v>0.87036000000000002</v>
+      </c>
+      <c r="CR10">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="CS10">
+        <v>0.85865999999999998</v>
+      </c>
+      <c r="CT10">
+        <v>0.85746</v>
+      </c>
+      <c r="CU10">
+        <v>0.83248</v>
+      </c>
+      <c r="CV10">
+        <v>0.87238000000000004</v>
+      </c>
+      <c r="CW10">
+        <v>0.85222220000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.84219999999999995</v>
-      </c>
-      <c r="B5">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.85264999999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.86041999999999996</v>
-      </c>
-      <c r="B6">
-        <v>0.86546000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.86294000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.85736000000000001</v>
-      </c>
-      <c r="B7">
-        <v>0.84409999999999996</v>
-      </c>
-      <c r="C7">
-        <v>0.85072999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.83035999999999999</v>
-      </c>
-      <c r="B8">
-        <v>0.86763999999999997</v>
-      </c>
-      <c r="C8">
-        <v>0.84899999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.85670000000000002</v>
-      </c>
-      <c r="B9">
-        <v>0.86282000000000003</v>
-      </c>
-      <c r="C9">
-        <v>0.85976000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.87058000000000002</v>
-      </c>
-      <c r="B10">
-        <v>0.85336000000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.86197000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.86285999999999996</v>
+        <v>0.85918000000000005</v>
       </c>
       <c r="B11">
-        <v>0.84767999999999999</v>
+        <v>0.84101999999999999</v>
       </c>
       <c r="C11">
-        <v>0.85526999999999997</v>
+        <v>0.84363999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.86575999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.82372000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.86212</v>
+      </c>
+      <c r="H11">
+        <v>0.85184000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.84741999999999995</v>
+      </c>
+      <c r="J11">
+        <v>0.82954000000000006</v>
+      </c>
+      <c r="K11">
+        <v>0.8367</v>
+      </c>
+      <c r="L11">
+        <v>0.83511999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.85831999999999997</v>
+      </c>
+      <c r="N11">
+        <v>0.84023999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.86024</v>
+      </c>
+      <c r="P11">
+        <v>0.8548</v>
+      </c>
+      <c r="Q11">
+        <v>0.85855999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.84950000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.83148</v>
+      </c>
+      <c r="T11">
+        <v>0.86431999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.85916000000000003</v>
+      </c>
+      <c r="V11">
+        <v>0.86465999999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.84667999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.84896000000000005</v>
+      </c>
+      <c r="Y11">
+        <v>0.83026</v>
+      </c>
+      <c r="Z11">
+        <v>0.86394000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.83487999999999996</v>
+      </c>
+      <c r="AB11">
+        <v>0.83952000000000004</v>
+      </c>
+      <c r="AC11">
+        <v>0.86673999999999995</v>
+      </c>
+      <c r="AD11">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.84526000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.88946000000000003</v>
+      </c>
+      <c r="AG11">
+        <v>0.84096000000000004</v>
+      </c>
+      <c r="AH11">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="AI11">
+        <v>0.86024</v>
+      </c>
+      <c r="AJ11">
+        <v>0.83555999999999997</v>
+      </c>
+      <c r="AK11">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="AL11">
+        <v>0.84987999999999997</v>
+      </c>
+      <c r="AM11">
+        <v>0.87078</v>
+      </c>
+      <c r="AN11">
+        <v>0.84982000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AP11">
+        <v>0.86734</v>
+      </c>
+      <c r="AQ11">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.86328000000000005</v>
+      </c>
+      <c r="AS11">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="AT11">
+        <v>0.86016000000000004</v>
+      </c>
+      <c r="AU11">
+        <v>0.85504000000000002</v>
+      </c>
+      <c r="AV11">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="AW11">
+        <v>0.86673999999999995</v>
+      </c>
+      <c r="AX11">
+        <v>0.8357</v>
+      </c>
+      <c r="AY11">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="AZ11">
+        <v>0.89092000000000005</v>
+      </c>
+      <c r="BA11">
+        <v>0.86495999999999995</v>
+      </c>
+      <c r="BB11">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="BC11">
+        <v>0.84736</v>
+      </c>
+      <c r="BD11">
+        <v>0.86217999999999995</v>
+      </c>
+      <c r="BE11">
+        <v>0.85633999999999999</v>
+      </c>
+      <c r="BF11">
+        <v>0.83762000000000003</v>
+      </c>
+      <c r="BG11">
+        <v>0.84658</v>
+      </c>
+      <c r="BH11">
+        <v>0.83772000000000002</v>
+      </c>
+      <c r="BI11">
+        <v>0.81491999999999998</v>
+      </c>
+      <c r="BJ11">
+        <v>0.83316000000000001</v>
+      </c>
+      <c r="BK11">
+        <v>0.83643999999999996</v>
+      </c>
+      <c r="BL11">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="BM11">
+        <v>0.85085999999999995</v>
+      </c>
+      <c r="BN11">
+        <v>0.83004</v>
+      </c>
+      <c r="BO11">
+        <v>0.82704</v>
+      </c>
+      <c r="BP11">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="BQ11">
+        <v>0.83982000000000001</v>
+      </c>
+      <c r="BR11">
+        <v>0.83501999999999998</v>
+      </c>
+      <c r="BS11">
+        <v>0.86184000000000005</v>
+      </c>
+      <c r="BT11">
+        <v>0.83153999999999995</v>
+      </c>
+      <c r="BU11">
+        <v>0.82418000000000002</v>
+      </c>
+      <c r="BV11">
+        <v>0.86331999999999998</v>
+      </c>
+      <c r="BW11">
+        <v>0.80955999999999995</v>
+      </c>
+      <c r="BX11">
+        <v>0.86936000000000002</v>
+      </c>
+      <c r="BY11">
+        <v>0.86431999999999998</v>
+      </c>
+      <c r="BZ11">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="CA11">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="CB11">
+        <v>0.84552000000000005</v>
+      </c>
+      <c r="CC11">
+        <v>0.85665999999999998</v>
+      </c>
+      <c r="CD11">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="CE11">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="CF11">
+        <v>0.85472000000000004</v>
+      </c>
+      <c r="CG11">
+        <v>0.83126</v>
+      </c>
+      <c r="CH11">
+        <v>0.83221999999999996</v>
+      </c>
+      <c r="CI11">
+        <v>0.87397999999999998</v>
+      </c>
+      <c r="CJ11">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="CK11">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="CL11">
+        <v>0.86643999999999999</v>
+      </c>
+      <c r="CM11">
+        <v>0.85916000000000003</v>
+      </c>
+      <c r="CN11">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="CO11">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="CP11">
+        <v>0.85184000000000004</v>
+      </c>
+      <c r="CQ11">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="CR11">
+        <v>0.83033999999999997</v>
+      </c>
+      <c r="CS11">
+        <v>0.83745999999999998</v>
+      </c>
+      <c r="CT11">
+        <v>0.83877999999999997</v>
+      </c>
+      <c r="CU11">
+        <v>0.85372000000000003</v>
+      </c>
+      <c r="CV11">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="CW11">
+        <v>0.84910980000000014</v>
       </c>
     </row>
   </sheetData>
